--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pf4-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pf4-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5.090240666666667</v>
+      </c>
+      <c r="H2">
+        <v>15.270722</v>
+      </c>
+      <c r="I2">
+        <v>0.01518526656315472</v>
+      </c>
+      <c r="J2">
+        <v>0.01525191836740238</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>2.631877333333333</v>
-      </c>
-      <c r="H2">
-        <v>7.895632</v>
-      </c>
-      <c r="I2">
-        <v>0.01066221345642817</v>
-      </c>
-      <c r="J2">
-        <v>0.01071963230056122</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.2387926666666667</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N2">
-        <v>0.716378</v>
+        <v>4.1272</v>
       </c>
       <c r="O2">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P2">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q2">
-        <v>0.6284730067662222</v>
+        <v>7.002813759822224</v>
       </c>
       <c r="R2">
-        <v>5.656257060895999</v>
+        <v>63.02532383840001</v>
       </c>
       <c r="S2">
-        <v>0.00128255472586384</v>
+        <v>0.006950796941273408</v>
       </c>
       <c r="T2">
-        <v>0.001289461622841417</v>
+        <v>0.006981305668609094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H3">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I3">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J3">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6404243333333333</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N3">
-        <v>1.921273</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O3">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P3">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q3">
-        <v>1.685518286615111</v>
+        <v>8.296092902749113</v>
       </c>
       <c r="R3">
-        <v>15.169664579536</v>
+        <v>74.66483612474202</v>
       </c>
       <c r="S3">
-        <v>0.003439717252378769</v>
+        <v>0.008234469621881313</v>
       </c>
       <c r="T3">
-        <v>0.00345824104104453</v>
+        <v>0.008270612698793289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,25 +655,25 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.631877333333333</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H4">
-        <v>7.895632</v>
+        <v>3.060866</v>
       </c>
       <c r="I4">
-        <v>0.01066221345642817</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J4">
-        <v>0.01071963230056122</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.105929</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N4">
-        <v>3.317787</v>
+        <v>4.1272</v>
       </c>
       <c r="O4">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P4">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q4">
-        <v>2.910669467376</v>
+        <v>1.403645128355556</v>
       </c>
       <c r="R4">
-        <v>26.196025206384</v>
+        <v>12.6328061552</v>
       </c>
       <c r="S4">
-        <v>0.005939941478185558</v>
+        <v>0.001393218868790079</v>
       </c>
       <c r="T4">
-        <v>0.005971929636675271</v>
+        <v>0.001399334043056565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,45 +732,45 @@
         <v>3.060866</v>
       </c>
       <c r="I5">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J5">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2387926666666667</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N5">
-        <v>0.716378</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O5">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P5">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q5">
-        <v>0.2436374514831111</v>
+        <v>1.662870209991778</v>
       </c>
       <c r="R5">
-        <v>2.192737063348</v>
+        <v>14.965831889926</v>
       </c>
       <c r="S5">
-        <v>0.0004972025233111105</v>
+        <v>0.001650518429557513</v>
       </c>
       <c r="T5">
-        <v>0.0004998800906197398</v>
+        <v>0.001657762953768958</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.020288666666667</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H6">
-        <v>3.060866</v>
+        <v>207.414634</v>
       </c>
       <c r="I6">
-        <v>0.00413337483985113</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J6">
-        <v>0.004155634158391578</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,33 +806,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.6404243333333333</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N6">
-        <v>1.921273</v>
+        <v>4.1272</v>
       </c>
       <c r="O6">
-        <v>0.3226081776017146</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P6">
-        <v>0.3226081776017146</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q6">
-        <v>0.6534176891575555</v>
+        <v>95.11574193831112</v>
       </c>
       <c r="R6">
-        <v>5.880759202417999</v>
+        <v>856.0416774447999</v>
       </c>
       <c r="S6">
-        <v>0.001333460524429152</v>
+        <v>0.09440922332176194</v>
       </c>
       <c r="T6">
-        <v>0.001340641562618142</v>
+        <v>0.09482360821555656</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.020288666666667</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H7">
-        <v>3.060866</v>
+        <v>207.414634</v>
       </c>
       <c r="I7">
-        <v>0.00413337483985113</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J7">
-        <v>0.004155634158391578</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105929</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N7">
-        <v>3.317787</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O7">
-        <v>0.5571020972764724</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P7">
-        <v>0.5571020972764724</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q7">
-        <v>1.128366824838</v>
+        <v>112.6817103378416</v>
       </c>
       <c r="R7">
-        <v>10.155301423542</v>
+        <v>1014.135393040574</v>
       </c>
       <c r="S7">
-        <v>0.002302711792110868</v>
+        <v>0.1118447119138591</v>
       </c>
       <c r="T7">
-        <v>0.002315112505153696</v>
+        <v>0.1123356253801203</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>110.36247</v>
+        <v>4.394653</v>
       </c>
       <c r="H8">
-        <v>331.08741</v>
+        <v>8.789306</v>
       </c>
       <c r="I8">
-        <v>0.4470984258329098</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J8">
-        <v>0.4495061693028696</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2387926666666667</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N8">
-        <v>0.716378</v>
+        <v>4.1272</v>
       </c>
       <c r="O8">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P8">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q8">
-        <v>26.35374851121999</v>
+        <v>6.045870620533334</v>
       </c>
       <c r="R8">
-        <v>237.18373660098</v>
+        <v>36.2752237232</v>
       </c>
       <c r="S8">
-        <v>0.05378134674583604</v>
+        <v>0.006000961964409672</v>
       </c>
       <c r="T8">
-        <v>0.05407097354600133</v>
+        <v>0.004018201091011932</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>110.36247</v>
+        <v>4.394653</v>
       </c>
       <c r="H9">
-        <v>331.08741</v>
+        <v>8.789306</v>
       </c>
       <c r="I9">
-        <v>0.4470984258329098</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J9">
-        <v>0.4495061693028696</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6404243333333333</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N9">
-        <v>1.921273</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O9">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P9">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q9">
-        <v>70.67881127476998</v>
+        <v>7.162421573127667</v>
       </c>
       <c r="R9">
-        <v>636.1093014729299</v>
+        <v>42.97452943876601</v>
       </c>
       <c r="S9">
-        <v>0.1442376083665504</v>
+        <v>0.007109219189611907</v>
       </c>
       <c r="T9">
-        <v>0.1450143660995265</v>
+        <v>0.004760282180317345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>110.36247</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H10">
-        <v>331.08741</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I10">
-        <v>0.4470984258329098</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J10">
-        <v>0.4495061693028696</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.105929</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N10">
-        <v>3.317787</v>
+        <v>4.1272</v>
       </c>
       <c r="O10">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P10">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q10">
-        <v>122.05305608463</v>
+        <v>351.5903633224889</v>
       </c>
       <c r="R10">
-        <v>1098.47750476167</v>
+        <v>3164.3132699024</v>
       </c>
       <c r="S10">
-        <v>0.2490794707205234</v>
+        <v>0.3489787542236739</v>
       </c>
       <c r="T10">
-        <v>0.2504208296573417</v>
+        <v>0.3505105063016749</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,365 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>3.9665605</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H11">
-        <v>7.933121000000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I11">
-        <v>0.01606925756120717</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J11">
-        <v>0.01077052984686476</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2387926666666667</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N11">
-        <v>0.716378</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O11">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P11">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q11">
-        <v>0.9471855592896667</v>
+        <v>416.5220464050625</v>
       </c>
       <c r="R11">
-        <v>5.683113355738</v>
+        <v>3748.698417645562</v>
       </c>
       <c r="S11">
-        <v>0.001932966574949227</v>
+        <v>0.4134281255251812</v>
       </c>
       <c r="T11">
-        <v>0.001295584074695645</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>3.9665605</v>
-      </c>
-      <c r="H12">
-        <v>7.933121000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.01606925756120717</v>
-      </c>
-      <c r="J12">
-        <v>0.01077052984686476</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.6404243333333333</v>
-      </c>
-      <c r="N12">
-        <v>1.921273</v>
-      </c>
-      <c r="O12">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="P12">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="Q12">
-        <v>2.540281863838833</v>
-      </c>
-      <c r="R12">
-        <v>15.241691183033</v>
-      </c>
-      <c r="S12">
-        <v>0.005184073897233619</v>
-      </c>
-      <c r="T12">
-        <v>0.003474661005701915</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>3.9665605</v>
-      </c>
-      <c r="H13">
-        <v>7.933121000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.01606925756120717</v>
-      </c>
-      <c r="J13">
-        <v>0.01077052984686476</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>1.105929</v>
-      </c>
-      <c r="N13">
-        <v>3.317787</v>
-      </c>
-      <c r="O13">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="P13">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="Q13">
-        <v>4.3867342872045</v>
-      </c>
-      <c r="R13">
-        <v>26.320405723227</v>
-      </c>
-      <c r="S13">
-        <v>0.00895221708902433</v>
-      </c>
-      <c r="T13">
-        <v>0.006000284766467202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>128.860357</v>
-      </c>
-      <c r="H14">
-        <v>386.5810710000001</v>
-      </c>
-      <c r="I14">
-        <v>0.5220367283096038</v>
-      </c>
-      <c r="J14">
-        <v>0.5248480343913128</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.2387926666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.716378</v>
-      </c>
-      <c r="O14">
-        <v>0.120289725121813</v>
-      </c>
-      <c r="P14">
-        <v>0.120289725121813</v>
-      </c>
-      <c r="Q14">
-        <v>30.77090827564867</v>
-      </c>
-      <c r="R14">
-        <v>276.938174480838</v>
-      </c>
-      <c r="S14">
-        <v>0.06279565455185283</v>
-      </c>
-      <c r="T14">
-        <v>0.06313382578765489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>128.860357</v>
-      </c>
-      <c r="H15">
-        <v>386.5810710000001</v>
-      </c>
-      <c r="I15">
-        <v>0.5220367283096038</v>
-      </c>
-      <c r="J15">
-        <v>0.5248480343913128</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.6404243333333333</v>
-      </c>
-      <c r="N15">
-        <v>1.921273</v>
-      </c>
-      <c r="O15">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="P15">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="Q15">
-        <v>82.52530822482034</v>
-      </c>
-      <c r="R15">
-        <v>742.7277740233831</v>
-      </c>
-      <c r="S15">
-        <v>0.1684133175611227</v>
-      </c>
-      <c r="T15">
-        <v>0.1693202678928234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>128.860357</v>
-      </c>
-      <c r="H16">
-        <v>386.5810710000001</v>
-      </c>
-      <c r="I16">
-        <v>0.5220367283096038</v>
-      </c>
-      <c r="J16">
-        <v>0.5248480343913128</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>1.105929</v>
-      </c>
-      <c r="N16">
-        <v>3.317787</v>
-      </c>
-      <c r="O16">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="P16">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="Q16">
-        <v>142.510405756653</v>
-      </c>
-      <c r="R16">
-        <v>1282.593651809877</v>
-      </c>
-      <c r="S16">
-        <v>0.2908277561966283</v>
-      </c>
-      <c r="T16">
-        <v>0.2923939407108345</v>
+        <v>0.4152427614670911</v>
       </c>
     </row>
   </sheetData>
